--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/PENNSYLVANIA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/PENNSYLVANIA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D886"/>
+  <dimension ref="A1:D880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -615,7 +615,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C18">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C21">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C30">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C45">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C49">
@@ -1449,7 +1449,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1506,7 +1506,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C85">
@@ -1732,7 +1732,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C102">
@@ -1771,12 +1771,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C105">
@@ -1802,7 +1802,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C107">
@@ -1815,7 +1815,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C108">
@@ -1828,7 +1828,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C109">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C114">
@@ -1971,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C120">
@@ -2062,7 +2062,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C132">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C140">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C148">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C149">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C158">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C165">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C170">
@@ -2769,7 +2769,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C181">
@@ -2782,7 +2782,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C182">
@@ -2795,7 +2795,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C183">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C189">
@@ -2925,7 +2925,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C193">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C201">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C203">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C204">
@@ -3081,7 +3081,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C205">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C207">
@@ -3159,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C211">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C218">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C222">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C224">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C225">
@@ -3372,7 +3372,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C227">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C228">
@@ -3398,7 +3398,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C229">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C232">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C233">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C237">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C238">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C244">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C245">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C259">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C261">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C263">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C267">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C279">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C280">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C283">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C286">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C292">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C293">
@@ -4261,7 +4261,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C295">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C296">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C298">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C301">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C302">
@@ -4365,7 +4365,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C303">
@@ -4404,7 +4404,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C306">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C307">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C309">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C310">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C313">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C314">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C315">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C316">
@@ -4643,7 +4643,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C324">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C331">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C332">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C336">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C337">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C339">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C342">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C343">
@@ -5610,7 +5610,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C398">
@@ -5966,7 +5966,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C425">
@@ -5979,7 +5979,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C426">
@@ -6031,7 +6031,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C430">
@@ -6088,7 +6088,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C434">
@@ -6210,7 +6210,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C443">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C445">
@@ -6319,7 +6319,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C451">
@@ -6332,7 +6332,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C452">
@@ -6345,7 +6345,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C453">
@@ -6358,7 +6358,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C454">
@@ -6371,7 +6371,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C455">
@@ -6384,7 +6384,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C456">
@@ -6423,7 +6423,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C459">
@@ -6436,7 +6436,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C460">
@@ -6462,7 +6462,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C462">
@@ -6501,7 +6501,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C465">
@@ -6514,7 +6514,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C466">
@@ -6527,7 +6527,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C467">
@@ -6722,7 +6722,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C482">
@@ -6774,7 +6774,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C486">
@@ -6800,7 +6800,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C488">
@@ -7008,7 +7008,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C504">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C506">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C513">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C514">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C528">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C556">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C562">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C564">
@@ -8053,7 +8053,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C584">
@@ -8209,7 +8209,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C596">
@@ -8222,7 +8222,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C597">
@@ -8365,7 +8365,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C608">
@@ -8378,7 +8378,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C609">
@@ -8417,7 +8417,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C612">
@@ -8443,7 +8443,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C614">
@@ -8469,7 +8469,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C616">
@@ -8534,7 +8534,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C621">
@@ -8599,7 +8599,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C626">
@@ -8781,7 +8781,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C640">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C643">
@@ -8833,7 +8833,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C644">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C651">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C657">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C658">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C662">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C664">
@@ -9106,7 +9106,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C665">
@@ -9158,7 +9158,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C669">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C680">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C684">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C694">
@@ -9501,7 +9501,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C695">
@@ -9540,7 +9540,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C698">
@@ -9553,7 +9553,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C699">
@@ -9592,7 +9592,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C702">
@@ -9680,7 +9680,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C708">
@@ -9693,7 +9693,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C709">
@@ -9706,7 +9706,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C710">
@@ -9875,7 +9875,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C723">
@@ -10433,7 +10433,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C764">
@@ -10446,7 +10446,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C765">
@@ -10472,7 +10472,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C767">
@@ -10511,7 +10511,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C770">
@@ -10550,7 +10550,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C773">
@@ -10576,7 +10576,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C775">
@@ -10711,7 +10711,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C785">
@@ -10750,7 +10750,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C788">
@@ -10789,7 +10789,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C791">
@@ -10880,7 +10880,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C798">
@@ -10997,7 +10997,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C807">
@@ -11023,7 +11023,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C809">
@@ -11036,7 +11036,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C810">
@@ -11114,7 +11114,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C816">
@@ -11153,7 +11153,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C819">
@@ -11166,7 +11166,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C820">
@@ -11218,7 +11218,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C824">
@@ -11309,7 +11309,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C831">
@@ -11322,7 +11322,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C832">
@@ -11361,7 +11361,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C835">
@@ -11413,7 +11413,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C839">
@@ -11465,7 +11465,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C843">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C857">
@@ -11904,7 +11904,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C876">
@@ -11964,41 +11964,6 @@
       </c>
       <c r="D880">
         <v>1</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
